--- a/Matlab Package/Inventory1.xlsx
+++ b/Matlab Package/Inventory1.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -62,9 +61,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -147,44 +146,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -211,14 +210,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -245,6 +262,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,166 +291,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -425,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +495,11 @@
           <t>Total Cost</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Place Order</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -491,7 +507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -508,12 +524,17 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -521,10 +542,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
       <c r="D3" t="n">
         <v>100</v>
       </c>
@@ -534,14 +557,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40</v>
+      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -549,10 +577,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
       <c r="D4" t="n">
         <v>120</v>
       </c>
@@ -567,11 +597,14 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>-20</v>
+      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -579,10 +612,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-20</v>
+      </c>
       <c r="D5" t="n">
         <v>60</v>
       </c>
@@ -595,13 +630,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="H5" t="n">
+        <v>60</v>
+      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -609,11 +647,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-80</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
         <v>60</v>
@@ -624,20 +662,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-140</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
-        <v>140</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -645,11 +682,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
         <v>180</v>
@@ -666,14 +703,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-120</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
         <v>120</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -681,11 +717,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-60</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>150</v>
@@ -699,17 +735,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H8" t="n">
-        <v>-120</v>
+        <v>150</v>
       </c>
       <c r="I8" t="n">
-        <v>120</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -717,11 +752,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-60</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
         <v>150</v>
@@ -738,14 +773,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-120</v>
+        <v>150</v>
       </c>
       <c r="I9" t="n">
-        <v>120</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -753,11 +787,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D10" t="n">
         <v>150</v>
@@ -774,14 +808,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-30</v>
+        <v>150</v>
       </c>
       <c r="I10" t="n">
         <v>30</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -789,11 +822,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D11" t="n">
         <v>150</v>
@@ -810,14 +843,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-30</v>
+        <v>150</v>
       </c>
       <c r="I11" t="n">
         <v>30</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -825,11 +857,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D12" t="n">
         <v>150</v>
@@ -846,14 +878,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-30</v>
+        <v>150</v>
       </c>
       <c r="I12" t="n">
         <v>30</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -861,11 +892,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D13" t="n">
         <v>150</v>
@@ -882,14 +913,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="I13" t="n">
         <v>30</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -897,11 +927,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D14" t="n">
         <v>120</v>
@@ -918,14 +948,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -933,11 +962,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
         <v>60</v>
@@ -948,20 +977,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -969,11 +997,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>150</v>
@@ -990,14 +1018,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="I16" t="n">
-        <v>60</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1005,11 +1032,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="D17" t="n">
         <v>90</v>
@@ -1020,20 +1047,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H17" t="n">
-        <v>-120</v>
+        <v>90</v>
       </c>
       <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1041,11 +1067,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="D18" t="n">
         <v>180</v>
@@ -1062,14 +1088,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-150</v>
+        <v>30</v>
       </c>
       <c r="I18" t="n">
-        <v>150</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1077,11 +1102,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>120</v>
@@ -1095,17 +1120,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H19" t="n">
-        <v>-90</v>
+        <v>30</v>
       </c>
       <c r="I19" t="n">
-        <v>90</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1113,11 +1137,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>30</v>
@@ -1128,20 +1152,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-90</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>90</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1149,11 +1172,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>180</v>
@@ -1170,13 +1193,49 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-60</v>
+        <v>30</v>
       </c>
       <c r="I21" t="n">
-        <v>60</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>150</v>
+      </c>
+      <c r="G22" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
   </sheetData>
